--- a/pj_jateng_periode1.xlsx
+++ b/pj_jateng_periode1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zake_\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zake_\Downloads\Aplikasi sijanda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A706C1-6AC3-4AA0-A1E7-BDD649DA7AC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A74F5E-4AF9-4215-92D5-26E4AE4BC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="101">
   <si>
     <t>REKAPITULASI KINERJA DINAS DUKCAPIL PROVINSI &amp; KAB/KOTA</t>
   </si>
@@ -330,18 +330,6 @@
   <si>
     <t>wajib_ktp_el</t>
   </si>
-  <si>
-    <t>periode</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
-    <t>tahun</t>
-  </si>
-  <si>
-    <t>february</t>
-  </si>
 </sst>
 </file>
 
@@ -351,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -387,12 +375,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -433,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -531,21 +513,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -560,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -707,26 +674,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -736,18 +683,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -985,54 +943,54 @@
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="C1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
     </row>
     <row r="2" spans="1:22" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="58"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="63"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
@@ -1047,7 +1005,7 @@
       <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="59" t="s">
         <v>6</v>
       </c>
@@ -1063,14 +1021,14 @@
       <c r="J3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="59" t="s">
         <v>13</v>
       </c>
@@ -1080,11 +1038,11 @@
       <c r="Q3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="58"/>
+      <c r="R3" s="63"/>
       <c r="S3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="58"/>
+      <c r="T3" s="63"/>
       <c r="U3" s="59" t="s">
         <v>17</v>
       </c>
@@ -3471,19 +3429,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="C1:V1"/>
     <mergeCell ref="C2:V2"/>
     <mergeCell ref="A3:A5"/>
@@ -3500,6 +3445,19 @@
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3528,60 +3486,60 @@
     <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="C1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
     </row>
     <row r="2" spans="1:25" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
-      <c r="X2" s="57"/>
-      <c r="Y2" s="58"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="63"/>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
@@ -3596,8 +3554,8 @@
       <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
@@ -3613,16 +3571,16 @@
       <c r="K3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="63"/>
       <c r="N3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="O3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="63"/>
       <c r="R3" s="59" t="s">
         <v>13</v>
       </c>
@@ -3632,11 +3590,11 @@
       <c r="T3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="58"/>
+      <c r="U3" s="63"/>
       <c r="V3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="58"/>
+      <c r="W3" s="63"/>
       <c r="X3" s="59" t="s">
         <v>17</v>
       </c>
@@ -6711,6 +6669,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C1:Y1"/>
+    <mergeCell ref="C2:Y2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="R3:R5"/>
+    <mergeCell ref="S3:S5"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="X3:X5"/>
     <mergeCell ref="Y3:Y5"/>
     <mergeCell ref="D4:D5"/>
@@ -6727,22 +6701,6 @@
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="C1:Y1"/>
-    <mergeCell ref="C2:Y2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="R3:R5"/>
-    <mergeCell ref="S3:S5"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6753,737 +6711,412 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B36"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="D1" s="69" t="s">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="B1" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="C1" s="57" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C2" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D2" s="65">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55">
         <v>3301</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="B2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="64">
+      <c r="C2" s="54">
         <v>1479762</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67">
-        <v>1</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D3" s="66">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="56">
         <v>3302</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="B3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="64">
+      <c r="C3" s="54">
         <v>1377963</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67">
-        <v>1</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D4" s="66">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="56">
         <v>3303</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="B4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="64">
+      <c r="C4" s="54">
         <v>756013</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67">
-        <v>1</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D5" s="66">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="56">
         <v>3304</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="B5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="64">
+      <c r="C5" s="54">
         <v>775955</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67">
-        <v>1</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D6" s="65">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="55">
         <v>3305</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="64">
+      <c r="C6" s="54">
         <v>1061535</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67">
-        <v>1</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D7" s="66">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="56">
         <v>3306</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="B7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="64">
+      <c r="C7" s="54">
         <v>621610</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67">
-        <v>1</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D8" s="66">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="56">
         <v>3307</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="B8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="64">
+      <c r="C8" s="54">
         <v>678892</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67">
-        <v>1</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D9" s="66">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="56">
         <v>3308</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="B9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="64">
+      <c r="C9" s="54">
         <v>996378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67">
-        <v>1</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D10" s="66">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="56">
         <v>3309</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="B10" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="64">
+      <c r="C10" s="54">
         <v>806310</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67">
-        <v>1</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D11" s="66">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="56">
         <v>3310</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="B11" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="64">
+      <c r="C11" s="54">
         <v>1037364</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67">
-        <v>1</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D12" s="66">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="56">
         <v>3311</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="B12" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="64">
+      <c r="C12" s="54">
         <v>703086</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="67">
-        <v>1</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D13" s="65">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="55">
         <v>3312</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="64">
+      <c r="C13" s="54">
         <v>882853</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="67">
-        <v>1</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D14" s="66">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="56">
         <v>3313</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="B14" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="64">
+      <c r="C14" s="54">
         <v>713235</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67">
-        <v>1</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D15" s="65">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="55">
         <v>3314</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="64">
+      <c r="C15" s="54">
         <v>768128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67">
-        <v>1</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D16" s="65">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="55">
         <v>3315</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="64">
+      <c r="C16" s="54">
         <v>1123580</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67">
-        <v>1</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D17" s="66">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="56">
         <v>3316</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="B17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="64">
+      <c r="C17" s="54">
         <v>719851</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="67">
-        <v>1</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D18" s="66">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="56">
         <v>3317</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="B18" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="64">
+      <c r="C18" s="54">
         <v>494104</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="67">
-        <v>1</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D19" s="66">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="56">
         <v>3318</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="B19" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="64">
+      <c r="C19" s="54">
         <v>1032105</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67">
-        <v>1</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D20" s="66">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="56">
         <v>3319</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="64">
+      <c r="C20" s="54">
         <v>652089</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67">
-        <v>1</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C21" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D21" s="66">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56">
         <v>3320</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="B21" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F21" s="64">
+      <c r="C21" s="54">
         <v>899266</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67">
-        <v>1</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C22" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D22" s="65">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="55">
         <v>3321</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="64">
+      <c r="C22" s="54">
         <v>875677</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67">
-        <v>1</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D23" s="65">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="55">
         <v>3322</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="B23" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="64">
+      <c r="C23" s="54">
         <v>792667</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="67">
-        <v>1</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D24" s="65">
+    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="55">
         <v>3323</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="B24" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="64">
+      <c r="C24" s="54">
         <v>606391</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="67">
-        <v>1</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D25" s="66">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="56">
         <v>3324</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="B25" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="64">
+      <c r="C25" s="54">
         <v>777709</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="67">
-        <v>1</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D26" s="66">
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="56">
         <v>3325</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="B26" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="64">
+      <c r="C26" s="54">
         <v>596184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="67">
-        <v>1</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D27" s="66">
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="56">
         <v>3326</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="64">
+      <c r="C27" s="54">
         <v>710195</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="67">
-        <v>1</v>
-      </c>
-      <c r="B28" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="65">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="55">
         <v>3327</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="B28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="64">
+      <c r="C28" s="54">
         <v>1114760</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="67">
-        <v>1</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D29" s="66">
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="56">
         <v>3328</v>
       </c>
-      <c r="E29" s="29" t="s">
+      <c r="B29" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="64">
+      <c r="C29" s="54">
         <v>1195793</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="67">
-        <v>1</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C30" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D30" s="66">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="56">
         <v>3329</v>
       </c>
-      <c r="E30" s="29" t="s">
+      <c r="B30" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="64">
+      <c r="C30" s="54">
         <v>1454914</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="67">
-        <v>1</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="66">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="56">
         <v>3371</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="B31" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F31" s="64">
+      <c r="C31" s="54">
         <v>98950</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="67">
-        <v>1</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C32" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D32" s="66">
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="56">
         <v>3372</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="B32" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="F32" s="64">
+      <c r="C32" s="54">
         <v>442378</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="67">
-        <v>1</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D33" s="65">
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="55">
         <v>3373</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="B33" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="64">
+      <c r="C33" s="54">
         <v>150088</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="67">
-        <v>1</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D34" s="65">
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="55">
         <v>3374</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="B34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="64">
+      <c r="C34" s="54">
         <v>1280938</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="67">
-        <v>1</v>
-      </c>
-      <c r="B35" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D35" s="66">
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="56">
         <v>3375</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="B35" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="64">
+      <c r="C35" s="54">
         <v>235885</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="67">
-        <v>1</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="67">
-        <v>2022</v>
-      </c>
-      <c r="D36" s="66">
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="56">
         <v>3376</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="B36" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="64">
+      <c r="C36" s="54">
         <v>214378</v>
       </c>
     </row>
@@ -7510,54 +7143,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="63"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
     </row>
@@ -7574,7 +7207,7 @@
       <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="59" t="s">
         <v>6</v>
       </c>
@@ -7590,14 +7223,14 @@
       <c r="J3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="59" t="s">
         <v>13</v>
       </c>
@@ -7607,11 +7240,11 @@
       <c r="Q3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="58"/>
+      <c r="R3" s="63"/>
       <c r="S3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="58"/>
+      <c r="T3" s="63"/>
       <c r="U3" s="59" t="s">
         <v>17</v>
       </c>
@@ -9927,19 +9560,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:A5"/>
@@ -9956,6 +9576,19 @@
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9978,54 +9611,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
     </row>
     <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="63"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
     </row>
@@ -10042,7 +9675,7 @@
       <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="58"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="59" t="s">
         <v>6</v>
       </c>
@@ -10058,14 +9691,14 @@
       <c r="J3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="63"/>
       <c r="L3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="58"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="59" t="s">
         <v>13</v>
       </c>
@@ -10075,11 +9708,11 @@
       <c r="Q3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="58"/>
+      <c r="R3" s="63"/>
       <c r="S3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="58"/>
+      <c r="T3" s="63"/>
       <c r="U3" s="59" t="s">
         <v>17</v>
       </c>
@@ -12394,19 +12027,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:A5"/>
@@ -12423,6 +12043,19 @@
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="L3:L5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12445,56 +12078,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="58"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="63"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
     </row>
@@ -12511,8 +12144,8 @@
       <c r="D3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="59" t="s">
         <v>6</v>
       </c>
@@ -12528,14 +12161,14 @@
       <c r="K3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="58"/>
+      <c r="L3" s="63"/>
       <c r="M3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="58"/>
+      <c r="O3" s="63"/>
       <c r="P3" s="59" t="s">
         <v>13</v>
       </c>
@@ -12545,11 +12178,11 @@
       <c r="R3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="58"/>
+      <c r="S3" s="63"/>
       <c r="T3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="58"/>
+      <c r="U3" s="63"/>
       <c r="V3" s="59" t="s">
         <v>17</v>
       </c>
@@ -14977,19 +14610,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="V3:V5"/>
-    <mergeCell ref="W3:W5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:U2"/>
     <mergeCell ref="A3:A5"/>
@@ -15006,6 +14626,19 @@
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="M3:M5"/>
+    <mergeCell ref="V3:V5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
